--- a/NeuralNetworkUnitTestCalcs.xlsx
+++ b/NeuralNetworkUnitTestCalcs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="20" windowWidth="25900" windowHeight="17240" tabRatio="500"/>
+    <workbookView xWindow="2360" yWindow="740" windowWidth="14200" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Activation</t>
   </si>
@@ -61,6 +61,39 @@
   </si>
   <si>
     <t>||U||^2</t>
+  </si>
+  <si>
+    <t>nabla_U</t>
+  </si>
+  <si>
+    <t>nabla_W</t>
+  </si>
+  <si>
+    <t>nabla_b2</t>
+  </si>
+  <si>
+    <t>nabla_b1</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>updated U</t>
+  </si>
+  <si>
+    <t>updated W</t>
+  </si>
+  <si>
+    <t>updated b2</t>
+  </si>
+  <si>
+    <t>updated b1</t>
+  </si>
+  <si>
+    <t>updated X</t>
+  </si>
+  <si>
+    <t>nabla_b0</t>
   </si>
 </sst>
 </file>
@@ -68,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -162,8 +195,72 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="151">
+  <cellStyleXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -327,6 +424,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -336,15 +440,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="151">
+  <cellStyles count="215">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -420,6 +517,38 @@
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -495,6 +624,38 @@
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -824,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
+  <dimension ref="B2:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41:K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -838,7 +999,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -852,7 +1013,7 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="5"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="3">
         <v>-0.5</v>
       </c>
@@ -874,7 +1035,7 @@
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="5"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -891,13 +1052,13 @@
       <c r="H4" s="3">
         <v>0.15340000000000001</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="7">
         <f t="array" ref="I4">SQRT(SUM(E3:H5^2))^2</f>
         <v>3.8767093799999999</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="5"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="3">
         <v>0</v>
       </c>
@@ -929,7 +1090,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -947,7 +1108,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1">
-      <c r="B8" s="6"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -969,7 +1130,7 @@
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="6"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3">
         <v>0</v>
       </c>
@@ -986,13 +1147,13 @@
       <c r="H9" s="3">
         <v>0.82469999999999999</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="7">
         <f t="array" ref="I9">SQRT(SUM(E8:H11^2))^2</f>
         <v>4.3672005300000007</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="6"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3">
         <v>0.5</v>
       </c>
@@ -1011,7 +1172,7 @@
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="6"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3">
         <v>-1</v>
       </c>
@@ -1043,14 +1204,14 @@
       <c r="C15" s="4">
         <v>0</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="2:11">
       <c r="C16" s="4">
@@ -1072,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:11">
+    <row r="17" spans="2:11">
       <c r="C17" s="4">
         <v>1</v>
       </c>
@@ -1080,90 +1241,508 @@
         <f>C14</f>
         <v>2</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="6">
         <f>MMULT(E8:H8,C$14:C$17)+C8</f>
         <v>2.6892800000000001</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="6">
         <f>TANH(H17)</f>
         <v>0.9908134669608637</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="6">
         <f>MMULT(E3:H3,I$17:I$20)+C3</f>
         <v>0.29917542348452542</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="6">
         <f>EXP(J17)/J$22</f>
         <v>2.9554632316191459E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:11">
+    <row r="18" spans="2:11">
       <c r="G18" s="2">
         <f>C15</f>
         <v>0</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="6">
         <f t="shared" ref="H18:H20" si="0">MMULT(E9:H9,C$14:C$17)+C9</f>
         <v>1.5928200000000001</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="6">
         <f t="shared" ref="I18:I20" si="1">TANH(H18)</f>
         <v>0.92058058899941575</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="6">
         <f t="shared" ref="J18:J19" si="2">MMULT(E4:H4,I$17:I$20)+C4</f>
         <v>3.678044560553051</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="6">
         <f>EXP(J18)/J$22</f>
         <v>0.86706125902901654</v>
       </c>
     </row>
-    <row r="19" spans="3:11">
+    <row r="19" spans="2:11">
       <c r="G19" s="2">
         <f>C16</f>
         <v>0.4</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="6">
         <f t="shared" si="0"/>
         <v>2.70018</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="6">
         <f t="shared" si="1"/>
         <v>0.99101067586412073</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="6">
         <f t="shared" si="2"/>
         <v>1.5513861921540419</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="6">
         <f>EXP(J19)/J$22</f>
         <v>0.10338410865479197</v>
       </c>
     </row>
-    <row r="20" spans="3:11">
+    <row r="20" spans="2:11">
       <c r="G20" s="2">
         <f>C17</f>
         <v>1</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="6">
         <f t="shared" si="0"/>
         <v>1.7880000000000118E-2</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="6">
         <f t="shared" si="1"/>
         <v>1.7878094865000145E-2</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="22" spans="3:11">
-      <c r="I22" s="8" t="s">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="I22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J22">
         <f t="array" ref="J22">SUM(EXP(J17:J19))</f>
         <v>45.635695617887741</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E24">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="F24">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="C25">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="D25">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="E25">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="F25">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="C26">
+        <v>-1E-3</v>
+      </c>
+      <c r="D26">
+        <v>-0.01</v>
+      </c>
+      <c r="E26">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="F26">
+        <v>-1.4E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>-1E-3</v>
+      </c>
+      <c r="F29">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="C30">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="D30">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="E30">
+        <v>-0.112</v>
+      </c>
+      <c r="F30">
+        <v>-0.115</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="C31">
+        <v>-1E-3</v>
+      </c>
+      <c r="D31">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="E31">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="F31">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="C32">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="D32">
+        <v>-0.113</v>
+      </c>
+      <c r="E32">
+        <v>-0.14199999999999999</v>
+      </c>
+      <c r="F32">
+        <v>-0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="C36">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="H36">
+        <f>E3-C24*C45</f>
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:J36" si="3">F3-D24*D45</f>
+        <v>0.26640000000000003</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>0.46499999999999997</v>
+      </c>
+      <c r="K36">
+        <f>H3-F24*E45</f>
+        <v>0.91739999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="C37">
+        <v>0.114</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37:H38" si="4">E4-C25*C46</f>
+        <v>0.40689999999999998</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ref="I37:I38" si="5">F4-D25*D46</f>
+        <v>0.46629999999999999</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ref="J37:J38" si="6">G4-E25*E46</f>
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ref="K37:K38" si="7">H4-F25*E46</f>
+        <v>0.16290000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>0.32029999999999997</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="5"/>
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="6"/>
+        <v>0.58150000000000002</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="7"/>
+        <v>0.82569999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>-0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="C40">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="C41">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="H41">
+        <f>E8-C29*C45</f>
+        <v>0.60840000000000005</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41:J41" si="8">F8-D29*D45</f>
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="8"/>
+        <v>0.58279999999999998</v>
+      </c>
+      <c r="K41">
+        <f>H8-F29*F45</f>
+        <v>0.23949999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="C42">
+        <v>0.108</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42:H44" si="9">E9-C30*C46</f>
+        <v>0.373</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42:I44" si="10">F9-D30*D46</f>
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ref="J42:J44" si="11">G9-E30*E46</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:K44" si="12">H9-F30*F46</f>
+        <v>0.83619999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="H43">
+        <f t="shared" si="9"/>
+        <v>0.59709999999999996</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="10"/>
+        <v>0.47350000000000003</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="11"/>
+        <v>0.50090000000000001</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="12"/>
+        <v>0.80820000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="H44">
+        <f t="shared" si="9"/>
+        <v>0.20820000000000002</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="10"/>
+        <v>0.1459</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="11"/>
+        <v>0.58340000000000003</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="12"/>
+        <v>0.39019999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>0.1</v>
+      </c>
+      <c r="D45">
+        <v>0.1</v>
+      </c>
+      <c r="E45">
+        <v>0.1</v>
+      </c>
+      <c r="F45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="C46">
+        <v>0.1</v>
+      </c>
+      <c r="D46">
+        <v>0.1</v>
+      </c>
+      <c r="E46">
+        <v>0.1</v>
+      </c>
+      <c r="F46">
+        <v>0.1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="C47">
+        <v>0.1</v>
+      </c>
+      <c r="D47">
+        <v>0.1</v>
+      </c>
+      <c r="E47">
+        <v>0.1</v>
+      </c>
+      <c r="F47">
+        <v>0.1</v>
+      </c>
+      <c r="H47">
+        <f>C3-C35*C45</f>
+        <v>-0.51370000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="C48">
+        <v>0.1</v>
+      </c>
+      <c r="D48">
+        <v>0.1</v>
+      </c>
+      <c r="E48">
+        <v>0.1</v>
+      </c>
+      <c r="F48">
+        <v>0.1</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48:H49" si="13">C4-C36*C46</f>
+        <v>2.0013000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="H49">
+        <f t="shared" si="13"/>
+        <v>-1.14E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>0.01</v>
+      </c>
+      <c r="H51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="C52">
+        <v>0.02</v>
+      </c>
+      <c r="H52">
+        <f>C8-C39*C45</f>
+        <v>1.0141</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" ref="H53:H55" si="14">C9-C40*C46</f>
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="C54">
+        <v>0.03</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="14"/>
+        <v>0.50349999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="H55">
+        <f t="shared" si="14"/>
+        <v>-1.0107999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="H58">
+        <f>C14-C51*C45</f>
+        <v>1.9990000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="H59">
+        <f t="shared" ref="H59:H61" si="15">C15-C52*C46</f>
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="H60">
+        <f t="shared" si="15"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="H61">
+        <f t="shared" si="15"/>
+        <v>0.997</v>
       </c>
     </row>
   </sheetData>
